--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr3_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr3_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="16.24609375" customWidth="true"/>
-    <col min="4" max="4" width="15.77734375" customWidth="true"/>
+    <col min="3" max="3" width="15.24609375" customWidth="true"/>
+    <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.77734375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="16.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.64453125" customWidth="true"/>
+    <col min="9" max="9" width="15.77734375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="15.77734375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.28809464545135605</v>
+        <v>0.2640050393282547</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.28763069996843837</v>
+        <v>0.26592660516450639</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-9.097989193054667e-05</v>
+        <v>-0.0061882170899833604</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00014305227489032406</v>
+        <v>-0.00022320412839002459</v>
       </c>
       <c r="F3" s="0">
-        <v>2.2414392533020922e-05</v>
+        <v>-0.00055552616566332852</v>
       </c>
       <c r="G3" s="0">
-        <v>6.3352296777062207e-05</v>
+        <v>6.2282115895190469e-05</v>
       </c>
       <c r="H3" s="0">
-        <v>2.5922289804417586e-06</v>
+        <v>3.4785329125562321e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>2.114664275663669e-05</v>
+        <v>6.7029521694531309e-05</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-3.8807432289900134e-07</v>
+        <v>3.3598347237151494e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29922476535324999</v>
+        <v>0.33517607073174582</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0047947493787900948</v>
+        <v>0.014881312400461101</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-4.9725139441301354e-07</v>
+        <v>-2.8237962311511487e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>-1.2642575338227693e-05</v>
+        <v>2.8686151737493915e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-7.1522726794138364e-06</v>
+        <v>0.00015254774874773962</v>
       </c>
       <c r="I4" s="0">
-        <v>0.00019354505786677674</v>
+        <v>0.00026834011648371563</v>
       </c>
       <c r="J4" s="0">
-        <v>0.0003420117717406972</v>
+        <v>0.0029184639597784751</v>
       </c>
       <c r="K4" s="0">
-        <v>-1.5350149107362654e-07</v>
+        <v>-2.3440040024524933e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.30094678028913624</v>
+        <v>0.33304215226794243</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.00095131216757736155</v>
+        <v>-0.0025835712278940602</v>
       </c>
       <c r="E5" s="0">
-        <v>-7.4238895988403659e-07</v>
+        <v>-0.0010726796200376746</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00045983407749511699</v>
+        <v>0.0016666786872637303</v>
       </c>
       <c r="G5" s="0">
-        <v>0.0001198977183339553</v>
+        <v>-0.00042688497973143047</v>
       </c>
       <c r="H5" s="0">
-        <v>-3.9186061138449101e-05</v>
+        <v>0.00014876736989733285</v>
       </c>
       <c r="I5" s="0">
-        <v>0.00023372616191118833</v>
+        <v>-1.1233779166790558e-06</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>1.5322790718474977e-06</v>
+        <v>0.00032073881531474724</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.29314924271724707</v>
+        <v>0.25137706776486068</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.001167953733944726</v>
+        <v>-0.0032071702089411028</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-9.4740218797191984e-06</v>
+        <v>2.3320783423242207e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-5.8380146322263449e-05</v>
+        <v>0.00023768846647498343</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-7.2482892732880961e-05</v>
+        <v>0.00015619707267173547</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0005975556948426546</v>
+        <v>-0.0043025569001637837</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>1.7553949804849367e-07</v>
+        <v>-8.2225607600516781e-08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.28933939207593212</v>
+        <v>0.24776674328504919</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0014631675005339012</v>
+        <v>-0.0056092261953253142</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.000405848953308827</v>
+        <v>-0.00053683899659987986</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0005104233825404509</v>
+        <v>0.0023649710920070127</v>
       </c>
       <c r="G7" s="0">
-        <v>-4.0557625023846764e-05</v>
+        <v>0.0031954606598681413</v>
       </c>
       <c r="H7" s="0">
-        <v>4.9419573095493859e-06</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>1.0820639981561648e-06</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-1.6403146158583404e-06</v>
+        <v>-0.00012957784520367666</v>
       </c>
     </row>
     <row r="8">
